--- a/output/StructureDefinition-ncdth-family-member-history.xlsx
+++ b/output/StructureDefinition-ncdth-family-member-history.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$39</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="308">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NCD Thailand FamilyMemberHistory Profile</t>
+    <t>NCD TH FamilyMemberHistory Profile</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T11:05:10+07:00</t>
+    <t>2022-02-22T23:30:09+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -686,8 +689,8 @@
     <t>FamilyMemberHistory.born[x]</t>
   </si>
   <si>
-    <t>Period
-datestring</t>
+    <t xml:space="preserve">date
+</t>
   </si>
   <si>
     <t>(approximate) date of birth</t>
@@ -697,6 +700,13 @@
   </si>
   <si>
     <t>Allows calculation of the relative's age.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">fhs-1
@@ -706,11 +716,14 @@
     <t>player[classCode=LIV, determinerCode=INSTANCE]. birthDate (could be URG)</t>
   </si>
   <si>
+    <t>bornDate</t>
+  </si>
+  <si>
     <t>FamilyMemberHistory.age[x]</t>
   </si>
   <si>
-    <t>Age
-Rangestring</t>
+    <t xml:space="preserve">Age
+</t>
   </si>
   <si>
     <t>(approximate) age</t>
@@ -726,6 +739,9 @@
   </si>
   <si>
     <t>participation[typeCode=SBJ].act[classCode=OBS,moodCode=EVN, code="age"].value</t>
+  </si>
+  <si>
+    <t>ageAge</t>
   </si>
   <si>
     <t>FamilyMemberHistory.estimatedAge</t>
@@ -757,10 +773,6 @@
     <t>FamilyMemberHistory.deceased[x]</t>
   </si>
   <si>
-    <t>boolean
-AgeRangedatestring</t>
-  </si>
-  <si>
     <t>Dead? How old/when?</t>
   </si>
   <si>
@@ -768,6 +780,9 @@
   </si>
   <si>
     <t>player[classCode=LIV, determinerCode=INSTANCE].deceasedInd, deceasedDate (could be URG)  For age, you'd hang an observation off the role</t>
+  </si>
+  <si>
+    <t>deceasedBoolean</t>
   </si>
   <si>
     <t>FamilyMemberHistory.reasonCode</t>
@@ -1085,6 +1100,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1261,7 +1291,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM36"/>
+  <dimension ref="A1:AM39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1271,7 +1301,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="49.94921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.52734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
@@ -1430,7 +1460,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -1539,7 +1569,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>85</v>
       </c>
@@ -1650,7 +1680,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>93</v>
       </c>
@@ -1759,7 +1789,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>99</v>
       </c>
@@ -1870,7 +1900,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>105</v>
       </c>
@@ -1981,7 +2011,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>114</v>
       </c>
@@ -2092,7 +2122,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>122</v>
       </c>
@@ -2203,7 +2233,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>130</v>
       </c>
@@ -2314,7 +2344,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>138</v>
       </c>
@@ -2427,7 +2457,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>143</v>
       </c>
@@ -2540,7 +2570,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>152</v>
       </c>
@@ -2649,7 +2679,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>158</v>
       </c>
@@ -2776,7 +2806,7 @@
         <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>87</v>
@@ -2871,7 +2901,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>172</v>
       </c>
@@ -2998,7 +3028,7 @@
         <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>76</v>
@@ -3091,7 +3121,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>189</v>
       </c>
@@ -3214,13 +3244,13 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3331,7 +3361,7 @@
         <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
@@ -3424,7 +3454,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>208</v>
       </c>
@@ -3537,7 +3567,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>216</v>
       </c>
@@ -3609,16 +3639,14 @@
         <v>76</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>216</v>
@@ -3630,7 +3658,7 @@
         <v>86</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>98</v>
@@ -3642,7 +3670,7 @@
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -3650,9 +3678,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>76</v>
       </c>
@@ -3664,28 +3694,26 @@
         <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -3734,7 +3762,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -3743,7 +3771,7 @@
         <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>98</v>
@@ -3755,15 +3783,15 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3786,26 +3814,24 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P23" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
         <v>76</v>
       </c>
@@ -3837,19 +3863,17 @@
         <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -3858,7 +3882,7 @@
         <v>86</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>98</v>
@@ -3870,7 +3894,7 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -3878,9 +3902,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>76</v>
       </c>
@@ -3892,7 +3918,7 @@
         <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -3901,16 +3927,20 @@
         <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>76</v>
       </c>
@@ -3958,7 +3988,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -3967,7 +3997,7 @@
         <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>98</v>
@@ -3979,15 +4009,15 @@
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3998,7 +4028,7 @@
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>76</v>
@@ -4010,22 +4040,26 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="Q25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4045,13 +4079,13 @@
         <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>76</v>
@@ -4069,36 +4103,36 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4109,7 +4143,7 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>76</v>
@@ -4121,13 +4155,13 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4166,25 +4200,23 @@
         <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
@@ -4193,23 +4225,25 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>250</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="C27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4218,25 +4252,25 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4287,13 +4321,13 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
@@ -4302,13 +4336,13 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>260</v>
+        <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4316,7 +4350,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4330,24 +4364,26 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>263</v>
+        <v>173</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>76</v>
@@ -4372,13 +4408,13 @@
         <v>76</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>76</v>
+        <v>252</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>76</v>
@@ -4396,7 +4432,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4411,21 +4447,21 @@
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>76</v>
+        <v>253</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4436,7 +4472,7 @@
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>76</v>
@@ -4445,16 +4481,16 @@
         <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>256</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4505,40 +4541,40 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>76</v>
+        <v>258</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4557,17 +4593,15 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>132</v>
+        <v>261</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>133</v>
+        <v>262</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>76</v>
@@ -4616,7 +4650,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4628,28 +4662,28 @@
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>76</v>
+        <v>264</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4662,26 +4696,22 @@
         <v>76</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>132</v>
+        <v>267</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>76</v>
       </c>
@@ -4729,7 +4759,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4741,7 +4771,7 @@
         <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>76</v>
@@ -4750,15 +4780,15 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>129</v>
+        <v>270</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4766,7 +4796,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>86</v>
@@ -4781,13 +4811,13 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>173</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4814,13 +4844,13 @@
         <v>76</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>284</v>
+        <v>76</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>76</v>
@@ -4838,10 +4868,10 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>86</v>
@@ -4850,7 +4880,7 @@
         <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>76</v>
@@ -4859,26 +4889,26 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>76</v>
@@ -4890,15 +4920,17 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>287</v>
+        <v>133</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>76</v>
@@ -4923,13 +4955,13 @@
         <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>289</v>
+        <v>76</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>76</v>
@@ -4947,19 +4979,19 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>76</v>
@@ -4968,47 +5000,51 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5056,19 +5092,19 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>76</v>
@@ -5077,15 +5113,15 @@
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5093,7 +5129,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>86</v>
@@ -5108,18 +5144,16 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>296</v>
+        <v>173</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="M35" s="2"/>
-      <c r="N35" t="s" s="2">
-        <v>299</v>
-      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5143,13 +5177,13 @@
         <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>76</v>
@@ -5167,10 +5201,10 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>86</v>
@@ -5188,15 +5222,15 @@
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5207,7 +5241,7 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>76</v>
@@ -5219,13 +5253,13 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>257</v>
+        <v>173</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5252,13 +5286,13 @@
         <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>76</v>
+        <v>293</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>76</v>
@@ -5276,13 +5310,13 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>76</v>
@@ -5297,13 +5331,360 @@
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J39" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="K39" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AM39">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI38">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/output/StructureDefinition-ncdth-family-member-history.xlsx
+++ b/output/StructureDefinition-ncdth-family-member-history.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NCD TH FamilyMemberHistory Profile</t>
+    <t>FamilyMemberHistory (NCD TH)</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T23:30:09+07:00</t>
+    <t>2022-02-23T19:35:19+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profile สำหรับ FamilyMemberHistory resource</t>
+    <t>ใช้บันทึกประวัติการเจ็บป่วยในครอบครัว</t>
   </si>
   <si>
     <t>Purpose</t>
